--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9355.296206619172</v>
+        <v>-19467.07311424446</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24728256.75116414</v>
+        <v>24728256.75116412</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2949897.883546158</v>
+        <v>2863511.364788235</v>
       </c>
     </row>
     <row r="11">
@@ -2084,13 +2086,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>160.0775686005992</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>164.540418312084</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2324,13 +2326,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>140.8320201297508</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>111.5422858787866</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2378,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2412,7 +2414,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H24" t="n">
-        <v>52.84233230531351</v>
+        <v>52.84233230531348</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>147.1566780575632</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>34.79484432979879</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>218.1878423516947</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407055</v>
+        <v>9.977447387534426</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2649,7 +2651,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H27" t="n">
-        <v>52.8423323053137</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>42.09444105482045</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>164.5404183120838</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2792,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>252.7357448956582</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>175.0364284967272</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2849,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2919,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>80.51100496435825</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T30" t="n">
         <v>140.4611363452985</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>42.09444105482045</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>40.71429044498915</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3026,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>113.3010685731256</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
@@ -3041,7 +3043,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>306.662605895944</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3080,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3187,10 +3189,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -3205,7 +3207,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>108.7754849109115</v>
+        <v>117.9721911323852</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3247,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3266,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>166.6548991966265</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3281,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
@@ -3332,7 +3334,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>341.7663037623996</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3393,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>80.51100496435825</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T36" t="n">
         <v>140.4611363452985</v>
@@ -3427,10 +3429,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>90.63804810364307</v>
+        <v>239.8542512727521</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3503,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3518,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>134.7647303247447</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>171.5578058653736</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3597,7 +3599,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H39" t="n">
-        <v>52.8423323053137</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3676,7 +3678,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>84.3940670177053</v>
+        <v>65.99276982265178</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3724,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3752,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>147.0044828306514</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>365.7726524722192</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3834,7 +3836,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H42" t="n">
-        <v>52.8423323053137</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>155.2137979687706</v>
       </c>
       <c r="W43" t="n">
-        <v>65.76953573495733</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3989,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>106.8056168372338</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4053,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="46">
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4192,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>199.3892443385091</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1082.772938122477</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1082.772938122477</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>659.480317307477</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>233.5033774553345</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>71.80886371735554</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>71.80886371735554</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>71.80886371735554</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>36.91199246082674</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>36.91199246082674</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>475.2419029331441</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>932.027809635875</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>932.027809635875</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>932.027809635875</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1388.813716338606</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1845.599623041337</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1845.599623041337</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1845.599623041337</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1845.599623041337</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1845.599623041337</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1845.599623041337</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1488.110208167586</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1488.110208167586</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1488.110208167586</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1082.772938122477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>604.0354834922822</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>486.529580009787</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>382.6896215250719</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>277.9876877980091</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>184.3418574809132</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>90.28808569851708</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>36.9119924608267</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>44.35863542273854</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>316.0561247023296</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>316.0561247023296</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>772.8420314050604</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1229.627938107791</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1306.794406253903</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1306.794406253903</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1306.794406253903</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1763.580312956634</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1845.599623041337</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1764.275375602591</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1622.39543990027</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1437.627243819906</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>1232.654104959172</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>1036.13272779239</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>872.6553815590526</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>732.9624929123449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1020.32454672534</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>848.3519836042556</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>685.0352107310263</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>518.8270048838798</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>346.9652306584402</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>180.7082609526723</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>36.91199246082674</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>36.91199246082674</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>36.91199246082674</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>76.20565529896515</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>430.8949765933859</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>822.0807715636367</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1199.572282439673</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1555.000411119436</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1845.599623041337</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1845.599623041337</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1845.599623041337</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1845.599623041337</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1845.599623041337</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1845.599623041337</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1845.599623041337</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1679.397180301858</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1436.833283747663</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1210.490515437405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1425.751258749807</v>
+        <v>1029.359909050153</v>
       </c>
       <c r="C23" t="n">
-        <v>998.8505287631069</v>
+        <v>602.4591790634536</v>
       </c>
       <c r="D23" t="n">
-        <v>575.5579079481072</v>
+        <v>179.1665582484538</v>
       </c>
       <c r="E23" t="n">
-        <v>149.5809680959647</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F23" t="n">
-        <v>149.5809680959647</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G23" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H23" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I23" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J23" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K23" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L23" t="n">
-        <v>475.942330131692</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M23" t="n">
-        <v>932.7282368344229</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="N23" t="n">
-        <v>1389.514143537154</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="O23" t="n">
-        <v>1389.514143537154</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="P23" t="n">
-        <v>1389.514143537154</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="Q23" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R23" t="n">
         <v>1845.599623041337</v>
@@ -6026,13 +6028,13 @@
         <v>1845.599623041337</v>
       </c>
       <c r="W23" t="n">
-        <v>1845.599623041337</v>
+        <v>1449.208273341683</v>
       </c>
       <c r="X23" t="n">
-        <v>1845.599623041337</v>
+        <v>1449.208273341683</v>
       </c>
       <c r="Y23" t="n">
-        <v>1845.599623041337</v>
+        <v>1449.208273341683</v>
       </c>
     </row>
     <row r="24">
@@ -6048,46 +6050,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D24" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E24" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F24" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G24" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H24" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I24" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J24" t="n">
-        <v>36.91199246082674</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K24" t="n">
-        <v>36.91199246082674</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="L24" t="n">
-        <v>36.91199246082674</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="M24" t="n">
-        <v>393.2225928484407</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N24" t="n">
-        <v>850.0084995511716</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O24" t="n">
-        <v>1306.794406253902</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P24" t="n">
-        <v>1763.580312956633</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q24" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R24" t="n">
         <v>1845.599623041337</v>
@@ -6121,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>595.376908067218</v>
+        <v>911.6745856373311</v>
       </c>
       <c r="C25" t="n">
-        <v>595.376908067218</v>
+        <v>739.7020225162471</v>
       </c>
       <c r="D25" t="n">
-        <v>595.376908067218</v>
+        <v>576.3852496430178</v>
       </c>
       <c r="E25" t="n">
-        <v>595.376908067218</v>
+        <v>410.1770437958713</v>
       </c>
       <c r="F25" t="n">
-        <v>446.7337989181643</v>
+        <v>238.3152695704318</v>
       </c>
       <c r="G25" t="n">
-        <v>280.4768292123964</v>
+        <v>72.05829986466389</v>
       </c>
       <c r="H25" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I25" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J25" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K25" t="n">
-        <v>36.91199246082674</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L25" t="n">
-        <v>303.8948463526241</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M25" t="n">
-        <v>695.080641322875</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N25" t="n">
-        <v>1072.572152198911</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O25" t="n">
-        <v>1428.000280878674</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P25" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q25" t="n">
         <v>1845.599623041337</v>
@@ -6172,25 +6174,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S25" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T25" t="n">
-        <v>1432.125227786372</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U25" t="n">
-        <v>1151.940779286676</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V25" t="n">
-        <v>870.229311894705</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W25" t="n">
-        <v>595.376908067218</v>
+        <v>1570.74721921385</v>
       </c>
       <c r="X25" t="n">
-        <v>595.376908067218</v>
+        <v>1328.183322659655</v>
       </c>
       <c r="Y25" t="n">
-        <v>595.376908067218</v>
+        <v>1101.840554349397</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1440.262352996227</v>
+        <v>1321.383964622947</v>
       </c>
       <c r="C26" t="n">
-        <v>1013.361623009527</v>
+        <v>1321.383964622947</v>
       </c>
       <c r="D26" t="n">
-        <v>590.0690021945275</v>
+        <v>898.0913438079472</v>
       </c>
       <c r="E26" t="n">
-        <v>590.0690021945275</v>
+        <v>472.1144039558047</v>
       </c>
       <c r="F26" t="n">
-        <v>590.0690021945275</v>
+        <v>46.99022214520494</v>
       </c>
       <c r="G26" t="n">
-        <v>369.6772422433207</v>
+        <v>46.99022214520494</v>
       </c>
       <c r="H26" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I26" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J26" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K26" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L26" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M26" t="n">
-        <v>814.4714747539724</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N26" t="n">
-        <v>1271.257381456703</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="O26" t="n">
-        <v>1728.043288159434</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="P26" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q26" t="n">
         <v>1728.043288159434</v>
@@ -6251,25 +6253,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S26" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T26" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U26" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V26" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W26" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="X26" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="Y26" t="n">
-        <v>1440.262352996227</v>
+        <v>1741.232328914477</v>
       </c>
     </row>
     <row r="27">
@@ -6279,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C27" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D27" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E27" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F27" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G27" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H27" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082672</v>
       </c>
       <c r="I27" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082672</v>
       </c>
       <c r="J27" t="n">
-        <v>308.6094817404178</v>
+        <v>36.91199246082672</v>
       </c>
       <c r="K27" t="n">
-        <v>475.2419029331441</v>
+        <v>493.6978991635575</v>
       </c>
       <c r="L27" t="n">
-        <v>475.2419029331441</v>
+        <v>493.6978991635575</v>
       </c>
       <c r="M27" t="n">
-        <v>932.027809635875</v>
+        <v>493.6978991635575</v>
       </c>
       <c r="N27" t="n">
-        <v>932.027809635875</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="O27" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P27" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q27" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R27" t="n">
         <v>1845.599623041337</v>
@@ -6333,7 +6335,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T27" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U27" t="n">
         <v>1437.627243819906</v>
@@ -6342,13 +6344,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W27" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X27" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y27" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="28">
@@ -6358,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.91199246082674</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C28" t="n">
-        <v>36.91199246082674</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D28" t="n">
-        <v>36.91199246082674</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E28" t="n">
-        <v>36.91199246082674</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F28" t="n">
-        <v>36.91199246082674</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G28" t="n">
-        <v>36.91199246082674</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H28" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I28" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J28" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K28" t="n">
-        <v>36.91199246082674</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L28" t="n">
-        <v>303.8948463526241</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M28" t="n">
-        <v>695.080641322875</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N28" t="n">
-        <v>1072.572152198911</v>
+        <v>1072.57215219891</v>
       </c>
       <c r="O28" t="n">
-        <v>1428.000280878674</v>
+        <v>1428.000280878673</v>
       </c>
       <c r="P28" t="n">
         <v>1718.599492800575</v>
@@ -6406,28 +6408,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R28" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S28" t="n">
-        <v>1628.425962247645</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T28" t="n">
-        <v>1385.086614473545</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U28" t="n">
-        <v>1104.902165973849</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V28" t="n">
-        <v>823.1906985818782</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W28" t="n">
-        <v>548.3382947543912</v>
+        <v>1679.397180301858</v>
       </c>
       <c r="X28" t="n">
-        <v>305.7743982001963</v>
+        <v>1436.833283747663</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.43162988993831</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1440.262352996227</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="C29" t="n">
-        <v>1013.361623009527</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="D29" t="n">
-        <v>590.0690021945275</v>
+        <v>1064.817587352586</v>
       </c>
       <c r="E29" t="n">
-        <v>334.7803709867919</v>
+        <v>638.8406475004439</v>
       </c>
       <c r="F29" t="n">
-        <v>334.7803709867919</v>
+        <v>213.7164656898441</v>
       </c>
       <c r="G29" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H29" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I29" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J29" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K29" t="n">
-        <v>815.1719019525203</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L29" t="n">
-        <v>815.1719019525203</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M29" t="n">
-        <v>815.1719019525203</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="N29" t="n">
-        <v>815.1719019525203</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="O29" t="n">
-        <v>815.1719019525203</v>
+        <v>932.7282368344228</v>
       </c>
       <c r="P29" t="n">
-        <v>1271.957808655251</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q29" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R29" t="n">
         <v>1845.599623041337</v>
@@ -6497,16 +6499,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V29" t="n">
-        <v>1845.599623041337</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="W29" t="n">
-        <v>1845.599623041337</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="X29" t="n">
-        <v>1845.599623041337</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="Y29" t="n">
-        <v>1440.262352996227</v>
+        <v>1488.110208167586</v>
       </c>
     </row>
     <row r="30">
@@ -6522,43 +6524,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D30" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E30" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F30" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G30" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H30" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I30" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J30" t="n">
         <v>308.6094817404178</v>
       </c>
       <c r="K30" t="n">
-        <v>308.6094817404178</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="L30" t="n">
-        <v>308.6094817404178</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="M30" t="n">
-        <v>308.6094817404178</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="N30" t="n">
-        <v>475.2419029331441</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="O30" t="n">
-        <v>932.027809635875</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P30" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q30" t="n">
         <v>1845.599623041337</v>
@@ -6595,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.91199246082674</v>
+        <v>349.7786697456642</v>
       </c>
       <c r="C31" t="n">
-        <v>36.91199246082674</v>
+        <v>177.8061066245802</v>
       </c>
       <c r="D31" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="E31" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="F31" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="G31" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="H31" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I31" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J31" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K31" t="n">
-        <v>320.9309218908219</v>
+        <v>239.8047369801043</v>
       </c>
       <c r="L31" t="n">
-        <v>320.9309218908219</v>
+        <v>594.4940582745251</v>
       </c>
       <c r="M31" t="n">
-        <v>695.080641322875</v>
+        <v>985.6798532447758</v>
       </c>
       <c r="N31" t="n">
-        <v>1072.572152198911</v>
+        <v>1363.171364120812</v>
       </c>
       <c r="O31" t="n">
-        <v>1428.000280878674</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="P31" t="n">
         <v>1718.599492800575</v>
@@ -6643,28 +6645,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R31" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S31" t="n">
-        <v>1628.425962247645</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T31" t="n">
-        <v>1385.086614473545</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U31" t="n">
-        <v>1104.902165973849</v>
+        <v>1565.415174541641</v>
       </c>
       <c r="V31" t="n">
-        <v>823.1906985818782</v>
+        <v>1283.70370714967</v>
       </c>
       <c r="W31" t="n">
-        <v>548.3382947543912</v>
+        <v>1008.851303322183</v>
       </c>
       <c r="X31" t="n">
-        <v>305.7743982001963</v>
+        <v>766.2874067679878</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.43162988993831</v>
+        <v>539.9446384577299</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1425.751258749807</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="C32" t="n">
-        <v>1311.305734938569</v>
+        <v>1197.77332209927</v>
       </c>
       <c r="D32" t="n">
-        <v>888.013114123569</v>
+        <v>1197.77332209927</v>
       </c>
       <c r="E32" t="n">
-        <v>462.0361742714265</v>
+        <v>771.7963822471276</v>
       </c>
       <c r="F32" t="n">
-        <v>36.91199246082674</v>
+        <v>346.6722004365278</v>
       </c>
       <c r="G32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J32" t="n">
         <v>399.5154512777223</v>
@@ -6704,16 +6706,16 @@
         <v>399.5154512777223</v>
       </c>
       <c r="L32" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M32" t="n">
-        <v>856.3013579804531</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="N32" t="n">
-        <v>856.3013579804531</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="O32" t="n">
-        <v>856.3013579804531</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="P32" t="n">
         <v>1271.957808655251</v>
@@ -6728,22 +6730,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T32" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U32" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="V32" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="W32" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="X32" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="Y32" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
     </row>
     <row r="33">
@@ -6759,46 +6761,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D33" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E33" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F33" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G33" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H33" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I33" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J33" t="n">
         <v>308.6094817404178</v>
       </c>
       <c r="K33" t="n">
-        <v>308.6094817404178</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="L33" t="n">
         <v>765.3953884431487</v>
       </c>
       <c r="M33" t="n">
-        <v>850.0084995511716</v>
+        <v>1222.18129514588</v>
       </c>
       <c r="N33" t="n">
-        <v>850.0084995511716</v>
+        <v>1678.96720184861</v>
       </c>
       <c r="O33" t="n">
-        <v>1306.794406253902</v>
+        <v>1678.96720184861</v>
       </c>
       <c r="P33" t="n">
-        <v>1763.580312956633</v>
+        <v>1678.96720184861</v>
       </c>
       <c r="Q33" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R33" t="n">
         <v>1845.599623041337</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>784.8037789907503</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C34" t="n">
-        <v>784.8037789907503</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D34" t="n">
-        <v>784.8037789907503</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E34" t="n">
-        <v>618.5955731436038</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F34" t="n">
-        <v>446.7337989181643</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G34" t="n">
-        <v>280.4768292123964</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H34" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I34" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J34" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K34" t="n">
-        <v>76.20565529896515</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L34" t="n">
-        <v>430.8949765933859</v>
+        <v>391.6013137552475</v>
       </c>
       <c r="M34" t="n">
-        <v>822.0807715636367</v>
+        <v>782.7871087254983</v>
       </c>
       <c r="N34" t="n">
-        <v>1199.572282439673</v>
+        <v>1160.278619601534</v>
       </c>
       <c r="O34" t="n">
-        <v>1555.000411119436</v>
+        <v>1515.706748281297</v>
       </c>
       <c r="P34" t="n">
-        <v>1845.599623041337</v>
+        <v>1806.305960203198</v>
       </c>
       <c r="Q34" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R34" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S34" t="n">
-        <v>1735.725395858598</v>
+        <v>1679.397180301858</v>
       </c>
       <c r="T34" t="n">
-        <v>1492.386048084498</v>
+        <v>1679.397180301858</v>
       </c>
       <c r="U34" t="n">
-        <v>1492.386048084498</v>
+        <v>1679.397180301858</v>
       </c>
       <c r="V34" t="n">
-        <v>1492.386048084498</v>
+        <v>1679.397180301858</v>
       </c>
       <c r="W34" t="n">
-        <v>1217.533644257011</v>
+        <v>1679.397180301858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.969747702816</v>
+        <v>1436.833283747663</v>
       </c>
       <c r="Y34" t="n">
-        <v>974.969747702816</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>334.7803709867919</v>
+        <v>632.1510044643211</v>
       </c>
       <c r="C35" t="n">
-        <v>334.7803709867919</v>
+        <v>205.2502744776212</v>
       </c>
       <c r="D35" t="n">
-        <v>334.7803709867919</v>
+        <v>205.2502744776212</v>
       </c>
       <c r="E35" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F35" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G35" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H35" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I35" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J35" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K35" t="n">
-        <v>399.5154512777223</v>
+        <v>358.3859952497894</v>
       </c>
       <c r="L35" t="n">
-        <v>399.5154512777223</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="M35" t="n">
-        <v>399.5154512777223</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="N35" t="n">
-        <v>399.5154512777223</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="O35" t="n">
-        <v>856.3013579804531</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="P35" t="n">
         <v>1271.957808655251</v>
@@ -6971,16 +6973,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V35" t="n">
-        <v>1488.110208167586</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W35" t="n">
-        <v>1091.718858467933</v>
+        <v>1449.208273341683</v>
       </c>
       <c r="X35" t="n">
-        <v>679.9988596356804</v>
+        <v>1037.488274509431</v>
       </c>
       <c r="Y35" t="n">
-        <v>334.7803709867919</v>
+        <v>632.1510044643211</v>
       </c>
     </row>
     <row r="36">
@@ -6996,46 +6998,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D36" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E36" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F36" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G36" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H36" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I36" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J36" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="K36" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="L36" t="n">
-        <v>501.1445421254695</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="M36" t="n">
-        <v>957.9304488282003</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="N36" t="n">
-        <v>1306.794406253903</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="O36" t="n">
-        <v>1763.580312956634</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="P36" t="n">
-        <v>1763.580312956634</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q36" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R36" t="n">
         <v>1845.599623041337</v>
@@ -7069,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>538.4095343022865</v>
+        <v>208.8845555819107</v>
       </c>
       <c r="C37" t="n">
-        <v>366.4369711812025</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D37" t="n">
-        <v>203.1201983079732</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E37" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F37" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G37" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H37" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I37" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J37" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K37" t="n">
-        <v>263.4395936666639</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L37" t="n">
-        <v>618.1289149610848</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M37" t="n">
-        <v>1009.314709931336</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.806220807371</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O37" t="n">
-        <v>1742.234349487134</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P37" t="n">
         <v>1845.599623041337</v>
@@ -7117,28 +7119,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R37" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S37" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T37" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U37" t="n">
-        <v>1754.046039098263</v>
+        <v>1142.809592985916</v>
       </c>
       <c r="V37" t="n">
-        <v>1472.334571706292</v>
+        <v>1142.809592985916</v>
       </c>
       <c r="W37" t="n">
-        <v>1197.482167878805</v>
+        <v>867.9571891584293</v>
       </c>
       <c r="X37" t="n">
-        <v>954.91827132461</v>
+        <v>625.3932926042344</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.5755030143521</v>
+        <v>399.0505242939764</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1313.082283114669</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="C38" t="n">
-        <v>886.181553127969</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="D38" t="n">
-        <v>462.8889323129692</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="E38" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F38" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G38" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H38" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I38" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J38" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K38" t="n">
+        <v>399.5154512777223</v>
+      </c>
+      <c r="L38" t="n">
+        <v>399.5154512777223</v>
+      </c>
+      <c r="M38" t="n">
         <v>856.3013579804531</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1271.957808655251</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1271.957808655251</v>
       </c>
       <c r="N38" t="n">
         <v>1271.957808655251</v>
@@ -7199,25 +7201,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S38" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T38" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U38" t="n">
-        <v>1709.473632814322</v>
+        <v>1261.951848555522</v>
       </c>
       <c r="V38" t="n">
-        <v>1709.473632814322</v>
+        <v>904.4624336817719</v>
       </c>
       <c r="W38" t="n">
-        <v>1313.082283114669</v>
+        <v>508.0710839821188</v>
       </c>
       <c r="X38" t="n">
-        <v>1313.082283114669</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="Y38" t="n">
-        <v>1313.082283114669</v>
+        <v>334.7803709867919</v>
       </c>
     </row>
     <row r="39">
@@ -7227,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C39" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D39" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E39" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F39" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G39" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H39" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082672</v>
       </c>
       <c r="I39" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J39" t="n">
         <v>316.0561247023297</v>
       </c>
       <c r="K39" t="n">
-        <v>772.8420314050605</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L39" t="n">
-        <v>1229.627938107791</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="M39" t="n">
-        <v>1229.627938107791</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N39" t="n">
-        <v>1229.627938107791</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="O39" t="n">
-        <v>1686.413844810522</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="P39" t="n">
-        <v>1763.580312956634</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q39" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R39" t="n">
         <v>1845.599623041337</v>
@@ -7281,7 +7283,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T39" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U39" t="n">
         <v>1437.627243819906</v>
@@ -7290,13 +7292,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W39" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X39" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y39" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="40">
@@ -7306,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>961.7748105746105</v>
+        <v>943.187641690718</v>
       </c>
       <c r="C40" t="n">
-        <v>789.8022474535264</v>
+        <v>771.215078569634</v>
       </c>
       <c r="D40" t="n">
-        <v>626.4854745802971</v>
+        <v>607.8983056964047</v>
       </c>
       <c r="E40" t="n">
-        <v>460.2772687331507</v>
+        <v>441.6900998492582</v>
       </c>
       <c r="F40" t="n">
-        <v>288.4154945077111</v>
+        <v>269.8283256238186</v>
       </c>
       <c r="G40" t="n">
-        <v>122.1585248019432</v>
+        <v>103.5713559180508</v>
       </c>
       <c r="H40" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I40" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J40" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K40" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L40" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M40" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N40" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.57215219891</v>
       </c>
       <c r="O40" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878673</v>
       </c>
       <c r="P40" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q40" t="n">
         <v>1845.599623041337</v>
@@ -7357,25 +7359,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S40" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T40" t="n">
-        <v>1432.125227786372</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="U40" t="n">
-        <v>1151.940779286676</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="V40" t="n">
-        <v>1151.940779286676</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="W40" t="n">
-        <v>1151.940779286676</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="X40" t="n">
-        <v>1151.940779286676</v>
+        <v>1359.696378713042</v>
       </c>
       <c r="Y40" t="n">
-        <v>1151.940779286676</v>
+        <v>1133.353610402784</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>739.1194333973433</v>
+        <v>460.2046132758265</v>
       </c>
       <c r="C41" t="n">
-        <v>739.1194333973433</v>
+        <v>460.2046132758265</v>
       </c>
       <c r="D41" t="n">
-        <v>739.1194333973433</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E41" t="n">
-        <v>739.1194333973433</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F41" t="n">
-        <v>739.1194333973433</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G41" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J41" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K41" t="n">
-        <v>475.2419029331441</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L41" t="n">
-        <v>932.027809635875</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M41" t="n">
-        <v>932.027809635875</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N41" t="n">
-        <v>1388.813716338606</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="O41" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P41" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q41" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R41" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S41" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T41" t="n">
-        <v>1520.30675795911</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U41" t="n">
-        <v>1520.30675795911</v>
+        <v>1697.110246444719</v>
       </c>
       <c r="V41" t="n">
-        <v>1520.30675795911</v>
+        <v>1697.110246444719</v>
       </c>
       <c r="W41" t="n">
-        <v>1520.30675795911</v>
+        <v>1697.110246444719</v>
       </c>
       <c r="X41" t="n">
-        <v>1108.586759126858</v>
+        <v>1285.390247612466</v>
       </c>
       <c r="Y41" t="n">
-        <v>739.1194333973433</v>
+        <v>880.0529775673565</v>
       </c>
     </row>
     <row r="42">
@@ -7464,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C42" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D42" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E42" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F42" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G42" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H42" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082672</v>
       </c>
       <c r="I42" t="n">
-        <v>44.35863542273858</v>
+        <v>36.91199246082672</v>
       </c>
       <c r="J42" t="n">
-        <v>316.0561247023297</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K42" t="n">
-        <v>316.0561247023297</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="L42" t="n">
-        <v>316.0561247023297</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="M42" t="n">
-        <v>316.0561247023297</v>
+        <v>765.3953884431486</v>
       </c>
       <c r="N42" t="n">
-        <v>772.8420314050605</v>
+        <v>1222.181295145879</v>
       </c>
       <c r="O42" t="n">
-        <v>850.0084995511718</v>
+        <v>1222.181295145879</v>
       </c>
       <c r="P42" t="n">
-        <v>1306.794406253903</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q42" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R42" t="n">
         <v>1845.599623041337</v>
@@ -7518,7 +7520,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T42" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U42" t="n">
         <v>1437.627243819906</v>
@@ -7527,13 +7529,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W42" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X42" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y42" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="43">
@@ -7543,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1120.093114985063</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="C43" t="n">
         <v>948.1205518639796</v>
@@ -7564,55 +7566,55 @@
         <v>136.6805607205508</v>
       </c>
       <c r="I43" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J43" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K43" t="n">
-        <v>76.20565529896515</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L43" t="n">
-        <v>430.8949765933859</v>
+        <v>391.6013137552475</v>
       </c>
       <c r="M43" t="n">
-        <v>822.0807715636367</v>
+        <v>782.7871087254983</v>
       </c>
       <c r="N43" t="n">
-        <v>1199.572282439673</v>
+        <v>1160.278619601534</v>
       </c>
       <c r="O43" t="n">
-        <v>1555.000411119436</v>
+        <v>1515.706748281297</v>
       </c>
       <c r="P43" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q43" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R43" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S43" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T43" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U43" t="n">
-        <v>1845.599623041337</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V43" t="n">
-        <v>1845.599623041337</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="W43" t="n">
-        <v>1779.165748561582</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="X43" t="n">
-        <v>1536.601852007387</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="Y43" t="n">
-        <v>1310.259083697129</v>
+        <v>948.1205518639796</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>904.4624336817719</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>477.561703695072</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>477.561703695072</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>477.561703695072</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>477.561703695072</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1261.951848555522</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>904.4624336817719</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>904.4624336817719</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>904.4624336817719</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>904.4624336817719</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>36.91199246082672</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>710.2713085277261</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>538.2987454066421</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>374.9819725334128</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>695.0806413228745</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1072.57215219891</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1428.000280878673</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1644.196345931731</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1369.343942104244</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1126.78004555005</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>900.4372772397917</v>
       </c>
     </row>
   </sheetData>
@@ -9401,10 +9403,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>478.5220861203824</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
         <v>37.43126289943181</v>
@@ -9413,10 +9415,10 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
         <v>36.12467460459804</v>
@@ -9474,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>99.28895563385618</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9498,10 +9500,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9559,22 +9561,22 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K22" t="n">
-        <v>60.65522297608413</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L22" t="n">
-        <v>380.1908016072373</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M22" t="n">
-        <v>417.7126065281028</v>
+        <v>22.57543989148582</v>
       </c>
       <c r="N22" t="n">
-        <v>402.0534574160406</v>
+        <v>20.74890097560039</v>
       </c>
       <c r="O22" t="n">
-        <v>381.5174992961649</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q22" t="n">
         <v>24.61956276478495</v>
@@ -9641,7 +9643,7 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>481.7770299789515</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M23" t="n">
         <v>498.831168659766</v>
@@ -9656,10 +9658,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>360.1383873221887</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9716,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>190.8306636765795</v>
       </c>
       <c r="M24" t="n">
-        <v>383.0064778735542</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N24" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O24" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9796,10 +9798,10 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K25" t="n">
-        <v>20.964654452712</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L25" t="n">
-        <v>291.5984102914562</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
         <v>417.7126065281028</v>
@@ -9814,7 +9816,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
-        <v>361.4449756170225</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>498.6795285947802</v>
+        <v>457.1346235160601</v>
       </c>
       <c r="O26" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9951,31 +9953,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>190.7148107956831</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>381.2527255747684</v>
       </c>
       <c r="O27" t="n">
         <v>484.5717954825564</v>
       </c>
       <c r="P27" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,19 +10032,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
-        <v>291.5984102914562</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
-        <v>402.0534574160406</v>
+        <v>26.57325859521331</v>
       </c>
       <c r="O28" t="n">
         <v>381.5174992961649</v>
@@ -10109,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>455.6196014764236</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
         <v>38.31204243262292</v>
@@ -10121,19 +10123,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O29" t="n">
-        <v>37.3909593560241</v>
+        <v>480.8559469023526</v>
       </c>
       <c r="P29" t="n">
-        <v>498.9752675705655</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q29" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10193,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
@@ -10200,16 +10202,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>189.6586051758914</v>
+        <v>189.6586051758916</v>
       </c>
       <c r="O30" t="n">
         <v>484.5717954825564</v>
       </c>
       <c r="P30" t="n">
-        <v>483.1707469651629</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q30" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10267,16 +10269,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>225.9068206338005</v>
       </c>
       <c r="L31" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>400.5044494188121</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
@@ -10285,7 +10287,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q31" t="n">
         <v>152.9025226039384</v>
@@ -10352,10 +10354,10 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
-        <v>37.43126289943181</v>
+        <v>457.2862635810459</v>
       </c>
       <c r="N32" t="n">
         <v>37.27962283444602</v>
@@ -10364,7 +10366,7 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
-        <v>457.4303624918456</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
@@ -10428,28 +10430,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L33" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>108.5645695103309</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O33" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>191.0626152513283</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10507,7 +10509,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K34" t="n">
-        <v>60.65522297608413</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
@@ -10525,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.61956276478495</v>
+        <v>64.31013128815719</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>360.4858157331554</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M35" t="n">
         <v>37.43126289943181</v>
@@ -10598,10 +10600,10 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>457.4303624918456</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10668,25 +10670,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>373.7308639970795</v>
+        <v>456.5786519614262</v>
       </c>
       <c r="O36" t="n">
         <v>484.5717954825564</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10744,7 +10746,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
@@ -10759,7 +10761,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>126.7901678844537</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
         <v>24.61956276478495</v>
@@ -10823,16 +10825,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
-        <v>458.1670431142373</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N38" t="n">
-        <v>37.27962283444602</v>
+        <v>457.1346235160601</v>
       </c>
       <c r="O38" t="n">
         <v>37.3909593560241</v>
@@ -10905,7 +10907,7 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L39" t="n">
-        <v>483.9149924745637</v>
+        <v>183.3088020988909</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
@@ -10914,16 +10916,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>99.71676862514317</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10978,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
@@ -10990,7 +10992,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>26.57325859521331</v>
       </c>
       <c r="O40" t="n">
         <v>381.5174992961649</v>
@@ -10999,7 +11001,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11060,28 +11062,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>112.2559661033163</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N41" t="n">
-        <v>498.6795285947802</v>
+        <v>457.1346235160601</v>
       </c>
       <c r="O41" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
         <v>295.0530226965566</v>
@@ -11145,22 +11147,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N42" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O42" t="n">
-        <v>101.1178171425366</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>483.1707469651629</v>
+        <v>190.0864181671787</v>
       </c>
       <c r="Q42" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11218,7 +11220,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K43" t="n">
-        <v>60.65522297608413</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L43" t="n">
         <v>380.1908016072373</v>
@@ -11233,10 +11235,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>227.3229668390748</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>35.76460079480934</v>
@@ -11306,19 +11308,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>456.5384578168827</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q44" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>100.4610141345442</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11391,13 +11393,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>22.57543989148582</v>
+        <v>42.23240770727544</v>
       </c>
       <c r="N46" t="n">
-        <v>20.74890097560039</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23972,13 +23974,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>260.7953713918945</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -23987,7 +23989,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24026,7 +24028,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -24035,7 +24037,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24045,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24096,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="22">
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24187,13 +24189,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>107.5634614771281</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24212,13 +24214,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>280.8851503238702</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>288.7533859076592</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
         <v>294.8896947407055</v>
@@ -24266,7 +24268,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>22.98647842562201</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>107.5634614771284</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24414,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>182.1078294347512</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>284.9122473531711</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>218.7163152458132</v>
@@ -24509,7 +24511,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>146.1698679701245</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>107.5634614771283</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24680,22 +24682,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>168.9814255579628</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>225.2592432897187</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
         <v>34.5479025439635</v>
@@ -24737,7 +24739,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
@@ -24746,7 +24748,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>146.1698679701245</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>120.9693146995078</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -24856,7 +24858,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24914,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>309.3306541137073</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24929,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>400.2956717864458</v>
+        <v>93.63306589050188</v>
       </c>
       <c r="H32" t="n">
         <v>294.8896947407055</v>
@@ -24968,7 +24970,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>255.7713603095518</v>
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>59.658212095145</v>
+        <v>50.46150587367124</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -25135,13 +25137,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25154,13 +25156,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>255.0622712569945</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
@@ -25169,7 +25171,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -25211,7 +25213,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>59.51759358225894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25315,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>186.7445559110557</v>
+        <v>37.52835274194663</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25391,13 +25393,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -25406,7 +25408,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -25439,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>121.0066299848071</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>236.0449929785566</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.96423878922185</v>
+        <v>76.36553598427537</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25597,13 +25599,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -25612,10 +25614,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -25640,10 +25642,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>108.7668774789004</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.51124487243931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>123.6805547492808</v>
       </c>
       <c r="W43" t="n">
-        <v>206.3343440542548</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25865,7 +25867,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -25877,13 +25879,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>293.490054949212</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -25941,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26080,16 +26082,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>79.50510837954229</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>466746.5512746218</v>
+        <v>60870.09540019948</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>466746.5512746218</v>
+        <v>466746.5512746219</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>466746.5512746218</v>
+        <v>466746.5512746217</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>466746.5512746219</v>
+        <v>466746.5512746218</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>466746.5512746219</v>
+        <v>466746.5512746217</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>60870.09540019948</v>
+        <v>466746.5512746219</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>12763.08451939666</v>
       </c>
       <c r="D2" t="n">
-        <v>12763.08451939666</v>
+        <v>12763.08451939667</v>
       </c>
       <c r="E2" t="n">
         <v>12763.08451939666</v>
       </c>
       <c r="F2" t="n">
-        <v>12763.08451939666</v>
+        <v>12763.08451939667</v>
       </c>
       <c r="G2" t="n">
         <v>12763.08451939666</v>
       </c>
       <c r="H2" t="n">
+        <v>12763.08451939666</v>
+      </c>
+      <c r="I2" t="n">
         <v>97727.0903097314</v>
-      </c>
-      <c r="I2" t="n">
-        <v>97727.09030973136</v>
       </c>
       <c r="J2" t="n">
         <v>97727.0903097314</v>
       </c>
       <c r="K2" t="n">
-        <v>97727.09030973139</v>
+        <v>97727.09030973136</v>
       </c>
       <c r="L2" t="n">
-        <v>97727.09030973134</v>
+        <v>97727.0903097314</v>
       </c>
       <c r="M2" t="n">
-        <v>97727.0903097314</v>
+        <v>97727.09030973137</v>
       </c>
       <c r="N2" t="n">
-        <v>97727.09030973134</v>
+        <v>97727.09030973143</v>
       </c>
       <c r="O2" t="n">
         <v>97727.0903097314</v>
       </c>
       <c r="P2" t="n">
-        <v>12763.08451939666</v>
+        <v>97727.0903097314</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>124489.84717329</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>122695.9243396938</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26433,13 +26435,13 @@
         <v>4908.878661306409</v>
       </c>
       <c r="H4" t="n">
-        <v>38650.95123624726</v>
+        <v>4908.878661306409</v>
       </c>
       <c r="I4" t="n">
         <v>38650.95123624726</v>
       </c>
       <c r="J4" t="n">
-        <v>38650.95123624726</v>
+        <v>38650.95123624725</v>
       </c>
       <c r="K4" t="n">
         <v>38650.95123624726</v>
@@ -26457,7 +26459,7 @@
         <v>38650.95123624726</v>
       </c>
       <c r="P4" t="n">
-        <v>4908.878661306409</v>
+        <v>38650.95123624725</v>
       </c>
     </row>
     <row r="5">
@@ -26485,31 +26487,31 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>28053.11427022832</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="J5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="K5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="L5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="M5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="N5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="O5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>28053.11427022831</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26527,43 @@
         <v>-25773.39414190975</v>
       </c>
       <c r="D6" t="n">
-        <v>-25773.39414190975</v>
+        <v>-25773.39414190974</v>
       </c>
       <c r="E6" t="n">
         <v>7854.205858090254</v>
       </c>
       <c r="F6" t="n">
+        <v>7854.205858090258</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7854.205858090252</v>
+      </c>
+      <c r="H6" t="n">
         <v>7854.205858090254</v>
       </c>
-      <c r="G6" t="n">
-        <v>7854.205858090254</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-93466.82237003421</v>
-      </c>
       <c r="I6" t="n">
-        <v>31023.02480325578</v>
+        <v>-91672.89953643797</v>
       </c>
       <c r="J6" t="n">
-        <v>31023.02480325582</v>
+        <v>31023.02480325583</v>
       </c>
       <c r="K6" t="n">
-        <v>31023.02480325581</v>
+        <v>31023.02480325579</v>
       </c>
       <c r="L6" t="n">
-        <v>31023.02480325576</v>
+        <v>31023.02480325583</v>
       </c>
       <c r="M6" t="n">
-        <v>31023.02480325582</v>
+        <v>31023.0248032558</v>
       </c>
       <c r="N6" t="n">
-        <v>31023.02480325576</v>
+        <v>31023.02480325586</v>
       </c>
       <c r="O6" t="n">
-        <v>31023.02480325582</v>
+        <v>31023.02480325583</v>
       </c>
       <c r="P6" t="n">
-        <v>7854.205858090254</v>
+        <v>31023.02480325583</v>
       </c>
     </row>
   </sheetData>
@@ -26805,31 +26807,31 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
     </row>
   </sheetData>
@@ -27027,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -36121,10 +36123,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36133,10 +36135,10 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36194,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>77.9459274203145</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36218,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36279,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>39.69056852337214</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>358.2720417115361</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>395.137166636617</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>381.3045564404402</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>359.0183117977405</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>293.5345574968697</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36361,13 +36363,13 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>443.4649875463285</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M23" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N23" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -36376,10 +36378,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>324.0137127175907</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>168.31557696235</v>
       </c>
       <c r="M24" t="n">
-        <v>359.9096973612262</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N24" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O24" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,10 +36518,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L25" t="n">
-        <v>269.6796503957549</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M25" t="n">
         <v>395.137166636617</v>
@@ -36534,7 +36536,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>461.3999057603342</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="O26" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>168.3155769623498</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>359.9096973612267</v>
       </c>
       <c r="O27" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P27" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L28" t="n">
-        <v>269.6796503957549</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M28" t="n">
         <v>395.137166636617</v>
       </c>
       <c r="N28" t="n">
-        <v>381.3045564404402</v>
+        <v>5.824357619612921</v>
       </c>
       <c r="O28" t="n">
         <v>359.0183117977405</v>
@@ -36829,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>419.8550006816142</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -36841,19 +36843,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>443.4649875463285</v>
       </c>
       <c r="P29" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q29" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36920,16 +36922,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>168.3155769623498</v>
+        <v>168.3155769623499</v>
       </c>
       <c r="O30" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P30" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q30" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>228.8157587937749</v>
+        <v>204.9421661810885</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M31" t="n">
-        <v>377.9290095273263</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N31" t="n">
         <v>381.3045564404402</v>
@@ -37005,7 +37007,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P31" t="n">
-        <v>293.5345574968697</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>128.2829598391535</v>
@@ -37072,10 +37074,10 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -37084,7 +37086,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>419.8550006816143</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
@@ -37148,28 +37150,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L33" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>85.46778899800287</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O33" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>168.3155769623498</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>39.69056852337214</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>358.2720417115361</v>
@@ -37245,7 +37247,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>39.69056852337224</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.7212149383461</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37318,10 +37320,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>419.8550006816143</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
@@ -37388,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>352.3878357835378</v>
+        <v>435.2356237478845</v>
       </c>
       <c r="O36" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L37" t="n">
         <v>358.2720417115361</v>
@@ -37479,7 +37481,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P37" t="n">
-        <v>104.4093672264672</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37543,16 +37545,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>419.8550006816143</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -37622,10 +37624,10 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L39" t="n">
-        <v>461.3999057603342</v>
+        <v>160.7937153846613</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37634,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>77.9459274203145</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K40" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L40" t="n">
         <v>358.2720417115361</v>
@@ -37710,7 +37712,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N40" t="n">
-        <v>381.3045564404402</v>
+        <v>5.824357619612921</v>
       </c>
       <c r="O40" t="n">
         <v>359.0183117977405</v>
@@ -37719,7 +37721,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>76.49136530850691</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N41" t="n">
-        <v>461.3999057603342</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="O41" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>274.4419083632233</v>
@@ -37865,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N42" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O42" t="n">
-        <v>77.94592742031439</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>461.3999057603342</v>
+        <v>168.31557696235</v>
       </c>
       <c r="Q42" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>39.69056852337214</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>358.2720417115361</v>
@@ -37953,10 +37955,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P43" t="n">
-        <v>293.5345574968697</v>
+        <v>204.9421661810883</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -38026,19 +38028,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>419.1474984608586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>77.94592742031462</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38111,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>19.65696781578962</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19467.07311424446</v>
+        <v>-28860.26545233461</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15140382.24954452</v>
+        <v>15140382.24954453</v>
       </c>
     </row>
     <row r="9">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>140.8320201297508</v>
+        <v>112.7233486261467</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H24" t="n">
-        <v>52.84233230531348</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2481,19 +2481,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>34.79484432979879</v>
+        <v>84.5837320176951</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>202.5673800533527</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>9.977447387534426</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,10 +2614,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2715,16 +2715,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>100.2514832355304</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>164.5404183120838</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2794,19 +2794,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>175.0364284967272</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>225.5855032049596</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2885,7 +2885,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G30" t="n">
-        <v>93.11323406457203</v>
+        <v>93.11323406457223</v>
       </c>
       <c r="H30" t="n">
         <v>52.84233230531351</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>100.5590851430732</v>
       </c>
       <c r="D31" t="n">
-        <v>40.71429044498915</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3037,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>306.662605895944</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>94.97236831976475</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>100.5590851430732</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3204,7 +3204,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>117.9721911323852</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>228.500275989532</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>166.6548991966265</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3404,7 +3404,7 @@
         <v>182.9205141195597</v>
       </c>
       <c r="V36" t="n">
-        <v>202.9234074721264</v>
+        <v>202.9234074721267</v>
       </c>
       <c r="W36" t="n">
         <v>194.556163395115</v>
@@ -3426,7 +3426,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>141.3043135059329</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>239.8542512727521</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>219.2666017056881</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>171.5578058653736</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3666,19 +3666,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>146.0854332786818</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>65.99276982265178</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>180.6148140014505</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>147.0044828306514</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3915,10 +3915,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>187.312152031428</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>155.2137979687706</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>106.8056168372338</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>84.14599277103687</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4149,7 +4149,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>199.3892443385091</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>85.16176372541145</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1029.359909050153</v>
+        <v>978.405643995617</v>
       </c>
       <c r="C23" t="n">
-        <v>602.4591790634536</v>
+        <v>978.405643995617</v>
       </c>
       <c r="D23" t="n">
-        <v>179.1665582484538</v>
+        <v>555.1130231806172</v>
       </c>
       <c r="E23" t="n">
-        <v>36.91199246082673</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="F23" t="n">
-        <v>36.91199246082673</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G23" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H23" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I23" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J23" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K23" t="n">
-        <v>36.91199246082673</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="L23" t="n">
-        <v>493.6978991635576</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="M23" t="n">
-        <v>950.4838058662883</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="N23" t="n">
-        <v>1407.269712569019</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O23" t="n">
-        <v>1407.269712569019</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P23" t="n">
-        <v>1407.269712569019</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q23" t="n">
         <v>1728.043288159434</v>
@@ -6016,25 +6016,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S23" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T23" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U23" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V23" t="n">
-        <v>1845.599623041337</v>
+        <v>1383.742914040727</v>
       </c>
       <c r="W23" t="n">
-        <v>1449.208273341683</v>
+        <v>1383.742914040727</v>
       </c>
       <c r="X23" t="n">
-        <v>1449.208273341683</v>
+        <v>1383.742914040727</v>
       </c>
       <c r="Y23" t="n">
-        <v>1449.208273341683</v>
+        <v>978.405643995617</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C24" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D24" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E24" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F24" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G24" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H24" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I24" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="J24" t="n">
         <v>308.6094817404178</v>
       </c>
       <c r="K24" t="n">
-        <v>308.6094817404178</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="L24" t="n">
-        <v>475.2419029331443</v>
+        <v>1222.18129514588</v>
       </c>
       <c r="M24" t="n">
-        <v>932.0278096358751</v>
+        <v>1678.967201848611</v>
       </c>
       <c r="N24" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O24" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P24" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q24" t="n">
         <v>1845.599623041337</v>
@@ -6098,7 +6098,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T24" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U24" t="n">
         <v>1437.627243819906</v>
@@ -6107,13 +6107,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W24" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X24" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y24" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="25">
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>911.6745856373311</v>
+        <v>460.5796384368655</v>
       </c>
       <c r="C25" t="n">
-        <v>739.7020225162471</v>
+        <v>288.6070753157816</v>
       </c>
       <c r="D25" t="n">
-        <v>576.3852496430178</v>
+        <v>288.6070753157816</v>
       </c>
       <c r="E25" t="n">
-        <v>410.1770437958713</v>
+        <v>288.6070753157816</v>
       </c>
       <c r="F25" t="n">
-        <v>238.3152695704318</v>
+        <v>288.6070753157816</v>
       </c>
       <c r="G25" t="n">
-        <v>72.05829986466389</v>
+        <v>122.3501056100137</v>
       </c>
       <c r="H25" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I25" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J25" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K25" t="n">
-        <v>76.20565529896515</v>
+        <v>303.8948463526241</v>
       </c>
       <c r="L25" t="n">
-        <v>430.8949765933859</v>
+        <v>303.8948463526241</v>
       </c>
       <c r="M25" t="n">
-        <v>822.0807715636367</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N25" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O25" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P25" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q25" t="n">
         <v>1845.599623041337</v>
@@ -6174,25 +6174,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S25" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T25" t="n">
-        <v>1845.599623041337</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="U25" t="n">
-        <v>1845.599623041337</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V25" t="n">
-        <v>1845.599623041337</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="W25" t="n">
-        <v>1570.74721921385</v>
+        <v>877.0883754591891</v>
       </c>
       <c r="X25" t="n">
-        <v>1328.183322659655</v>
+        <v>877.0883754591891</v>
       </c>
       <c r="Y25" t="n">
-        <v>1101.840554349397</v>
+        <v>650.7456071489312</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1321.383964622947</v>
+        <v>887.1053432625264</v>
       </c>
       <c r="C26" t="n">
-        <v>1321.383964622947</v>
+        <v>460.2046132758265</v>
       </c>
       <c r="D26" t="n">
-        <v>898.0913438079472</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E26" t="n">
-        <v>472.1144039558047</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F26" t="n">
-        <v>46.99022214520494</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G26" t="n">
-        <v>46.99022214520494</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H26" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I26" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J26" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K26" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L26" t="n">
-        <v>399.5154512777223</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M26" t="n">
-        <v>399.5154512777223</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="N26" t="n">
-        <v>815.1719019525202</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="O26" t="n">
-        <v>815.1719019525202</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P26" t="n">
-        <v>1271.957808655251</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q26" t="n">
         <v>1728.043288159434</v>
@@ -6253,25 +6253,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S26" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T26" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U26" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V26" t="n">
-        <v>1741.232328914477</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="W26" t="n">
-        <v>1741.232328914477</v>
+        <v>1091.718858467933</v>
       </c>
       <c r="X26" t="n">
-        <v>1741.232328914477</v>
+        <v>1091.718858467933</v>
       </c>
       <c r="Y26" t="n">
-        <v>1741.232328914477</v>
+        <v>1091.718858467933</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C27" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D27" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E27" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F27" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G27" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H27" t="n">
-        <v>36.91199246082672</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I27" t="n">
-        <v>36.91199246082672</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="J27" t="n">
-        <v>36.91199246082672</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K27" t="n">
-        <v>493.6978991635575</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="L27" t="n">
-        <v>493.6978991635575</v>
+        <v>1222.18129514588</v>
       </c>
       <c r="M27" t="n">
-        <v>493.6978991635575</v>
+        <v>1222.18129514588</v>
       </c>
       <c r="N27" t="n">
-        <v>850.0084995511719</v>
+        <v>1222.18129514588</v>
       </c>
       <c r="O27" t="n">
-        <v>1306.794406253903</v>
+        <v>1222.18129514588</v>
       </c>
       <c r="P27" t="n">
-        <v>1306.794406253903</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q27" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R27" t="n">
         <v>1845.599623041337</v>
@@ -6335,7 +6335,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T27" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U27" t="n">
         <v>1437.627243819906</v>
@@ -6344,13 +6344,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W27" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X27" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y27" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1020.32454672534</v>
+        <v>513.1734365055867</v>
       </c>
       <c r="C28" t="n">
-        <v>848.3519836042556</v>
+        <v>513.1734365055867</v>
       </c>
       <c r="D28" t="n">
-        <v>685.0352107310263</v>
+        <v>513.1734365055867</v>
       </c>
       <c r="E28" t="n">
-        <v>518.8270048838798</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="F28" t="n">
         <v>346.9652306584402</v>
@@ -6378,28 +6378,28 @@
         <v>180.7082609526723</v>
       </c>
       <c r="H28" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I28" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J28" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K28" t="n">
-        <v>320.9309218908219</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L28" t="n">
-        <v>675.6202431852428</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M28" t="n">
-        <v>1066.806038155494</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N28" t="n">
-        <v>1072.57215219891</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O28" t="n">
-        <v>1428.000280878673</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P28" t="n">
         <v>1718.599492800575</v>
@@ -6408,28 +6408,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R28" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S28" t="n">
-        <v>1845.599623041337</v>
+        <v>1697.296885248176</v>
       </c>
       <c r="T28" t="n">
-        <v>1845.599623041337</v>
+        <v>1453.957537474076</v>
       </c>
       <c r="U28" t="n">
-        <v>1845.599623041337</v>
+        <v>1453.957537474076</v>
       </c>
       <c r="V28" t="n">
-        <v>1845.599623041337</v>
+        <v>1172.246070082105</v>
       </c>
       <c r="W28" t="n">
-        <v>1679.397180301858</v>
+        <v>1172.246070082105</v>
       </c>
       <c r="X28" t="n">
-        <v>1436.833283747663</v>
+        <v>929.6821735279102</v>
       </c>
       <c r="Y28" t="n">
-        <v>1210.490515437405</v>
+        <v>703.3394052176523</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1488.110208167586</v>
+        <v>887.1053432625264</v>
       </c>
       <c r="C29" t="n">
-        <v>1488.110208167586</v>
+        <v>460.2046132758265</v>
       </c>
       <c r="D29" t="n">
-        <v>1064.817587352586</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E29" t="n">
-        <v>638.8406475004439</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F29" t="n">
-        <v>213.7164656898441</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G29" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H29" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I29" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J29" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K29" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L29" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M29" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N29" t="n">
-        <v>493.6978991635576</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O29" t="n">
-        <v>932.7282368344228</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P29" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q29" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R29" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S29" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T29" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U29" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="V29" t="n">
-        <v>1488.110208167586</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="W29" t="n">
-        <v>1488.110208167586</v>
+        <v>1292.442613307636</v>
       </c>
       <c r="X29" t="n">
-        <v>1488.110208167586</v>
+        <v>1292.442613307636</v>
       </c>
       <c r="Y29" t="n">
-        <v>1488.110208167586</v>
+        <v>887.1053432625264</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C30" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D30" t="n">
-        <v>382.6896215250717</v>
+        <v>382.689621525072</v>
       </c>
       <c r="E30" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980092</v>
       </c>
       <c r="F30" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809133</v>
       </c>
       <c r="G30" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H30" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I30" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J30" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K30" t="n">
-        <v>765.3953884431487</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L30" t="n">
-        <v>765.3953884431487</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="M30" t="n">
-        <v>765.3953884431487</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N30" t="n">
-        <v>932.0278096358751</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O30" t="n">
-        <v>1388.813716338606</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="P30" t="n">
-        <v>1845.599623041337</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="Q30" t="n">
         <v>1845.599623041337</v>
@@ -6572,7 +6572,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T30" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U30" t="n">
         <v>1437.627243819906</v>
@@ -6581,13 +6581,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W30" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X30" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y30" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="31">
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>349.7786697456642</v>
+        <v>806.1305485902617</v>
       </c>
       <c r="C31" t="n">
-        <v>177.8061066245802</v>
+        <v>704.55571511241</v>
       </c>
       <c r="D31" t="n">
-        <v>136.6805607205508</v>
+        <v>541.2389422391807</v>
       </c>
       <c r="E31" t="n">
-        <v>136.6805607205508</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="F31" t="n">
-        <v>136.6805607205508</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G31" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H31" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I31" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J31" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K31" t="n">
-        <v>239.8047369801043</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L31" t="n">
-        <v>594.4940582745251</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M31" t="n">
-        <v>985.6798532447758</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N31" t="n">
-        <v>1363.171364120812</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O31" t="n">
-        <v>1718.599492800575</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P31" t="n">
         <v>1718.599492800575</v>
@@ -6645,28 +6645,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R31" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S31" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T31" t="n">
-        <v>1845.599623041337</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="U31" t="n">
-        <v>1565.415174541641</v>
+        <v>1275.037213454714</v>
       </c>
       <c r="V31" t="n">
-        <v>1283.70370714967</v>
+        <v>1275.037213454714</v>
       </c>
       <c r="W31" t="n">
-        <v>1008.851303322183</v>
+        <v>1275.037213454714</v>
       </c>
       <c r="X31" t="n">
-        <v>766.2874067679878</v>
+        <v>1032.47331690052</v>
       </c>
       <c r="Y31" t="n">
-        <v>539.9446384577299</v>
+        <v>806.1305485902617</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1624.67405208597</v>
+        <v>1166.020163384043</v>
       </c>
       <c r="C32" t="n">
-        <v>1197.77332209927</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="D32" t="n">
-        <v>1197.77332209927</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="E32" t="n">
-        <v>771.7963822471276</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="F32" t="n">
-        <v>346.6722004365278</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="G32" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H32" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I32" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J32" t="n">
         <v>399.5154512777223</v>
@@ -6709,13 +6709,13 @@
         <v>399.5154512777223</v>
       </c>
       <c r="M32" t="n">
-        <v>815.1719019525202</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N32" t="n">
-        <v>815.1719019525202</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O32" t="n">
-        <v>815.1719019525202</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="P32" t="n">
         <v>1271.957808655251</v>
@@ -6727,25 +6727,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S32" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T32" t="n">
-        <v>1624.67405208597</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U32" t="n">
-        <v>1624.67405208597</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V32" t="n">
-        <v>1624.67405208597</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="W32" t="n">
-        <v>1624.67405208597</v>
+        <v>1166.020163384043</v>
       </c>
       <c r="X32" t="n">
-        <v>1624.67405208597</v>
+        <v>1166.020163384043</v>
       </c>
       <c r="Y32" t="n">
-        <v>1624.67405208597</v>
+        <v>1166.020163384043</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C33" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D33" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E33" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F33" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G33" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H33" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I33" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J33" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K33" t="n">
-        <v>765.3953884431487</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L33" t="n">
-        <v>765.3953884431487</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M33" t="n">
-        <v>1222.18129514588</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N33" t="n">
-        <v>1678.96720184861</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="O33" t="n">
-        <v>1678.96720184861</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P33" t="n">
-        <v>1678.96720184861</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="Q33" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R33" t="n">
         <v>1845.599623041337</v>
@@ -6809,7 +6809,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T33" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U33" t="n">
         <v>1437.627243819906</v>
@@ -6818,13 +6818,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W33" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X33" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y33" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="34">
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1020.32454672534</v>
+        <v>806.1305485902617</v>
       </c>
       <c r="C34" t="n">
-        <v>848.3519836042556</v>
+        <v>704.55571511241</v>
       </c>
       <c r="D34" t="n">
-        <v>685.0352107310263</v>
+        <v>541.2389422391807</v>
       </c>
       <c r="E34" t="n">
-        <v>518.8270048838798</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="F34" t="n">
-        <v>346.9652306584402</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G34" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H34" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I34" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J34" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K34" t="n">
-        <v>36.91199246082673</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L34" t="n">
-        <v>391.6013137552475</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M34" t="n">
-        <v>782.7871087254983</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N34" t="n">
-        <v>1160.278619601534</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O34" t="n">
-        <v>1515.706748281297</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="P34" t="n">
-        <v>1806.305960203198</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q34" t="n">
         <v>1845.599623041337</v>
@@ -6885,25 +6885,25 @@
         <v>1798.56100972851</v>
       </c>
       <c r="S34" t="n">
-        <v>1679.397180301858</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T34" t="n">
-        <v>1679.397180301858</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="U34" t="n">
-        <v>1679.397180301858</v>
+        <v>1275.037213454714</v>
       </c>
       <c r="V34" t="n">
-        <v>1679.397180301858</v>
+        <v>1275.037213454714</v>
       </c>
       <c r="W34" t="n">
-        <v>1679.397180301858</v>
+        <v>1275.037213454714</v>
       </c>
       <c r="X34" t="n">
-        <v>1436.833283747663</v>
+        <v>1032.47331690052</v>
       </c>
       <c r="Y34" t="n">
-        <v>1210.490515437405</v>
+        <v>806.1305485902617</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>632.1510044643211</v>
+        <v>969.9277929827292</v>
       </c>
       <c r="C35" t="n">
-        <v>205.2502744776212</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="D35" t="n">
-        <v>205.2502744776212</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="E35" t="n">
-        <v>36.91199246082673</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="F35" t="n">
-        <v>36.91199246082673</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="G35" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H35" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I35" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J35" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K35" t="n">
-        <v>358.3859952497894</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L35" t="n">
-        <v>815.1719019525202</v>
+        <v>475.942330131692</v>
       </c>
       <c r="M35" t="n">
-        <v>815.1719019525202</v>
+        <v>475.942330131692</v>
       </c>
       <c r="N35" t="n">
-        <v>815.1719019525202</v>
+        <v>475.942330131692</v>
       </c>
       <c r="O35" t="n">
-        <v>815.1719019525202</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="P35" t="n">
-        <v>1271.957808655251</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q35" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R35" t="n">
         <v>1845.599623041337</v>
@@ -6967,22 +6967,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T35" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U35" t="n">
-        <v>1845.599623041337</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="V35" t="n">
-        <v>1845.599623041337</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="W35" t="n">
-        <v>1449.208273341683</v>
+        <v>969.9277929827292</v>
       </c>
       <c r="X35" t="n">
-        <v>1037.488274509431</v>
+        <v>969.9277929827292</v>
       </c>
       <c r="Y35" t="n">
-        <v>632.1510044643211</v>
+        <v>969.9277929827292</v>
       </c>
     </row>
     <row r="36">
@@ -6998,46 +6998,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D36" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E36" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F36" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G36" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H36" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I36" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J36" t="n">
-        <v>44.35863542273857</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K36" t="n">
-        <v>44.35863542273857</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L36" t="n">
-        <v>44.35863542273857</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="M36" t="n">
-        <v>44.35863542273857</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="N36" t="n">
-        <v>475.2419029331443</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O36" t="n">
-        <v>932.0278096358751</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P36" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q36" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R36" t="n">
         <v>1845.599623041337</v>
@@ -7046,7 +7046,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T36" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U36" t="n">
         <v>1437.627243819906</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>208.8845555819107</v>
+        <v>179.6436222647994</v>
       </c>
       <c r="C37" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D37" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E37" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F37" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G37" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H37" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I37" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J37" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K37" t="n">
         <v>76.20565529896515</v>
@@ -7119,28 +7119,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R37" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S37" t="n">
-        <v>1628.425962247645</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T37" t="n">
-        <v>1385.086614473545</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="U37" t="n">
-        <v>1142.809592985916</v>
+        <v>1395.280127060776</v>
       </c>
       <c r="V37" t="n">
-        <v>1142.809592985916</v>
+        <v>1113.568659668805</v>
       </c>
       <c r="W37" t="n">
-        <v>867.9571891584293</v>
+        <v>838.7162558413179</v>
       </c>
       <c r="X37" t="n">
-        <v>625.3932926042344</v>
+        <v>596.152359287123</v>
       </c>
       <c r="Y37" t="n">
-        <v>399.0505242939764</v>
+        <v>369.809590976865</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>334.7803709867919</v>
+        <v>1108.586759126858</v>
       </c>
       <c r="C38" t="n">
-        <v>334.7803709867919</v>
+        <v>681.6860291401579</v>
       </c>
       <c r="D38" t="n">
-        <v>334.7803709867919</v>
+        <v>258.3934083251581</v>
       </c>
       <c r="E38" t="n">
-        <v>334.7803709867919</v>
+        <v>258.3934083251581</v>
       </c>
       <c r="F38" t="n">
-        <v>334.7803709867919</v>
+        <v>258.3934083251581</v>
       </c>
       <c r="G38" t="n">
-        <v>334.7803709867919</v>
+        <v>258.3934083251581</v>
       </c>
       <c r="H38" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I38" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J38" t="n">
         <v>399.5154512777223</v>
@@ -7183,13 +7183,13 @@
         <v>399.5154512777223</v>
       </c>
       <c r="M38" t="n">
+        <v>399.5154512777223</v>
+      </c>
+      <c r="N38" t="n">
+        <v>399.5154512777223</v>
+      </c>
+      <c r="O38" t="n">
         <v>856.3013579804531</v>
-      </c>
-      <c r="N38" t="n">
-        <v>1271.957808655251</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1271.957808655251</v>
       </c>
       <c r="P38" t="n">
         <v>1271.957808655251</v>
@@ -7207,19 +7207,19 @@
         <v>1520.30675795911</v>
       </c>
       <c r="U38" t="n">
-        <v>1261.951848555522</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="V38" t="n">
-        <v>904.4624336817719</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="W38" t="n">
-        <v>508.0710839821188</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="X38" t="n">
-        <v>334.7803709867919</v>
+        <v>1108.586759126858</v>
       </c>
       <c r="Y38" t="n">
-        <v>334.7803709867919</v>
+        <v>1108.586759126858</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C39" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D39" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E39" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F39" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G39" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H39" t="n">
-        <v>36.91199246082672</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I39" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J39" t="n">
-        <v>316.0561247023297</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K39" t="n">
         <v>772.8420314050604</v>
       </c>
       <c r="L39" t="n">
-        <v>932.0278096358751</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M39" t="n">
-        <v>932.0278096358751</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N39" t="n">
-        <v>932.0278096358751</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="O39" t="n">
-        <v>932.0278096358751</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P39" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q39" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R39" t="n">
         <v>1845.599623041337</v>
@@ -7283,7 +7283,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T39" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U39" t="n">
         <v>1437.627243819906</v>
@@ -7292,13 +7292,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W39" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X39" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y39" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>943.187641690718</v>
+        <v>528.3073735231906</v>
       </c>
       <c r="C40" t="n">
-        <v>771.215078569634</v>
+        <v>356.3348104021065</v>
       </c>
       <c r="D40" t="n">
-        <v>607.8983056964047</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="E40" t="n">
-        <v>441.6900998492582</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="F40" t="n">
-        <v>269.8283256238186</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G40" t="n">
-        <v>103.5713559180508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H40" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I40" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J40" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K40" t="n">
-        <v>320.9309218908219</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L40" t="n">
-        <v>675.6202431852428</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M40" t="n">
-        <v>1066.806038155494</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N40" t="n">
-        <v>1072.57215219891</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O40" t="n">
-        <v>1428.000280878673</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P40" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q40" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R40" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S40" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T40" t="n">
-        <v>1602.260275267236</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="U40" t="n">
-        <v>1602.260275267236</v>
+        <v>1275.037213454714</v>
       </c>
       <c r="V40" t="n">
-        <v>1602.260275267236</v>
+        <v>993.3257460627433</v>
       </c>
       <c r="W40" t="n">
-        <v>1602.260275267236</v>
+        <v>718.4733422352563</v>
       </c>
       <c r="X40" t="n">
-        <v>1359.696378713042</v>
+        <v>718.4733422352563</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.353610402784</v>
+        <v>718.4733422352563</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>460.2046132758265</v>
+        <v>681.1487997661267</v>
       </c>
       <c r="C41" t="n">
-        <v>460.2046132758265</v>
+        <v>254.2480697794268</v>
       </c>
       <c r="D41" t="n">
-        <v>36.91199246082673</v>
+        <v>254.2480697794268</v>
       </c>
       <c r="E41" t="n">
-        <v>36.91199246082673</v>
+        <v>254.2480697794268</v>
       </c>
       <c r="F41" t="n">
-        <v>36.91199246082673</v>
+        <v>254.2480697794268</v>
       </c>
       <c r="G41" t="n">
-        <v>36.91199246082673</v>
+        <v>254.2480697794268</v>
       </c>
       <c r="H41" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I41" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J41" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K41" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L41" t="n">
-        <v>399.5154512777223</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M41" t="n">
-        <v>856.3013579804531</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N41" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O41" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P41" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q41" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R41" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S41" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T41" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U41" t="n">
-        <v>1697.110246444719</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="V41" t="n">
-        <v>1697.110246444719</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="W41" t="n">
-        <v>1697.110246444719</v>
+        <v>1086.486069811236</v>
       </c>
       <c r="X41" t="n">
-        <v>1285.390247612466</v>
+        <v>1086.486069811236</v>
       </c>
       <c r="Y41" t="n">
-        <v>880.0529775673565</v>
+        <v>681.1487997661267</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C42" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D42" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E42" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F42" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G42" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H42" t="n">
-        <v>36.91199246082672</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I42" t="n">
-        <v>36.91199246082672</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="J42" t="n">
         <v>308.6094817404178</v>
       </c>
       <c r="K42" t="n">
-        <v>308.6094817404178</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="L42" t="n">
-        <v>308.6094817404178</v>
+        <v>1222.18129514588</v>
       </c>
       <c r="M42" t="n">
-        <v>765.3953884431486</v>
+        <v>1222.18129514588</v>
       </c>
       <c r="N42" t="n">
-        <v>1222.181295145879</v>
+        <v>1222.18129514588</v>
       </c>
       <c r="O42" t="n">
-        <v>1222.181295145879</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P42" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q42" t="n">
         <v>1845.599623041337</v>
@@ -7520,7 +7520,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T42" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U42" t="n">
         <v>1437.627243819906</v>
@@ -7529,13 +7529,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W42" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X42" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y42" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>948.1205518639796</v>
+        <v>547.0032995131182</v>
       </c>
       <c r="C43" t="n">
-        <v>948.1205518639796</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="D43" t="n">
-        <v>784.8037789907503</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="E43" t="n">
-        <v>618.5955731436038</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="F43" t="n">
-        <v>446.7337989181643</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G43" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H43" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I43" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J43" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K43" t="n">
-        <v>36.91199246082673</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L43" t="n">
-        <v>391.6013137552475</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M43" t="n">
-        <v>782.7871087254983</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N43" t="n">
-        <v>1160.278619601534</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O43" t="n">
-        <v>1515.706748281297</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P43" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q43" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R43" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S43" t="n">
-        <v>1628.425962247645</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T43" t="n">
-        <v>1385.086614473545</v>
+        <v>1486.260381589332</v>
       </c>
       <c r="U43" t="n">
-        <v>1104.902165973849</v>
+        <v>1206.075933089637</v>
       </c>
       <c r="V43" t="n">
-        <v>948.1205518639796</v>
+        <v>1206.075933089637</v>
       </c>
       <c r="W43" t="n">
-        <v>948.1205518639796</v>
+        <v>1206.075933089637</v>
       </c>
       <c r="X43" t="n">
-        <v>948.1205518639796</v>
+        <v>963.5120365354419</v>
       </c>
       <c r="Y43" t="n">
-        <v>948.1205518639796</v>
+        <v>737.1692682251839</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>904.4624336817719</v>
+        <v>923.8337755146551</v>
       </c>
       <c r="C44" t="n">
-        <v>477.561703695072</v>
+        <v>496.9330455279553</v>
       </c>
       <c r="D44" t="n">
-        <v>477.561703695072</v>
+        <v>496.9330455279553</v>
       </c>
       <c r="E44" t="n">
-        <v>477.561703695072</v>
+        <v>496.9330455279553</v>
       </c>
       <c r="F44" t="n">
-        <v>477.561703695072</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="G44" t="n">
-        <v>369.6772422433207</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H44" t="n">
-        <v>71.80886371735552</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I44" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J44" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K44" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L44" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M44" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N44" t="n">
         <v>856.3013579804531</v>
       </c>
       <c r="O44" t="n">
-        <v>1271.257381456703</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="P44" t="n">
         <v>1728.043288159434</v>
@@ -7675,25 +7675,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S44" t="n">
-        <v>1741.232328914477</v>
+        <v>1760.60367074736</v>
       </c>
       <c r="T44" t="n">
-        <v>1520.30675795911</v>
+        <v>1539.678099791993</v>
       </c>
       <c r="U44" t="n">
-        <v>1261.951848555522</v>
+        <v>1281.323190388406</v>
       </c>
       <c r="V44" t="n">
-        <v>904.4624336817719</v>
+        <v>923.8337755146551</v>
       </c>
       <c r="W44" t="n">
-        <v>904.4624336817719</v>
+        <v>923.8337755146551</v>
       </c>
       <c r="X44" t="n">
-        <v>904.4624336817719</v>
+        <v>923.8337755146551</v>
       </c>
       <c r="Y44" t="n">
-        <v>904.4624336817719</v>
+        <v>923.8337755146551</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C45" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D45" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E45" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F45" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G45" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H45" t="n">
-        <v>36.91199246082672</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I45" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J45" t="n">
-        <v>316.0561247023297</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K45" t="n">
         <v>772.8420314050604</v>
       </c>
       <c r="L45" t="n">
-        <v>850.0084995511719</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="M45" t="n">
-        <v>850.0084995511719</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="N45" t="n">
-        <v>850.0084995511719</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="O45" t="n">
-        <v>850.0084995511719</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P45" t="n">
         <v>1306.794406253903</v>
       </c>
       <c r="Q45" t="n">
-        <v>1763.580312956633</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R45" t="n">
         <v>1845.599623041337</v>
@@ -7757,7 +7757,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U45" t="n">
         <v>1437.627243819906</v>
@@ -7766,13 +7766,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W45" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X45" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y45" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>710.2713085277261</v>
+        <v>876.528278233494</v>
       </c>
       <c r="C46" t="n">
-        <v>538.2987454066421</v>
+        <v>704.55571511241</v>
       </c>
       <c r="D46" t="n">
-        <v>374.9819725334128</v>
+        <v>541.2389422391807</v>
       </c>
       <c r="E46" t="n">
-        <v>208.7737666862663</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="F46" t="n">
-        <v>36.91199246082673</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G46" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H46" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I46" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J46" t="n">
         <v>94.40332068498475</v>
@@ -7815,13 +7815,13 @@
         <v>675.6202431852428</v>
       </c>
       <c r="M46" t="n">
-        <v>695.0806413228745</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N46" t="n">
-        <v>1072.57215219891</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O46" t="n">
-        <v>1428.000280878673</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P46" t="n">
         <v>1718.599492800575</v>
@@ -7833,25 +7833,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S46" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T46" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="U46" t="n">
-        <v>1845.599623041337</v>
+        <v>1395.280127060776</v>
       </c>
       <c r="V46" t="n">
-        <v>1644.196345931731</v>
+        <v>1395.280127060776</v>
       </c>
       <c r="W46" t="n">
-        <v>1369.343942104244</v>
+        <v>1309.258143499754</v>
       </c>
       <c r="X46" t="n">
-        <v>1126.78004555005</v>
+        <v>1066.69424694556</v>
       </c>
       <c r="Y46" t="n">
-        <v>900.4372772397917</v>
+        <v>1066.69424694556</v>
       </c>
     </row>
   </sheetData>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>455.6196014764236</v>
       </c>
       <c r="L23" t="n">
-        <v>499.7119481929571</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M23" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.1383873221887</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9719,16 +9719,16 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L24" t="n">
-        <v>190.8306636765795</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M24" t="n">
-        <v>484.4966862726621</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N24" t="n">
-        <v>482.7429339738758</v>
+        <v>189.6586051758914</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9737,7 +9737,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9795,13 +9795,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>60.65522297608414</v>
+        <v>232.5722561371962</v>
       </c>
       <c r="L25" t="n">
-        <v>380.1908016072373</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M25" t="n">
         <v>417.7126065281028</v>
@@ -9816,7 +9816,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9877,25 +9877,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M26" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>457.1346235160601</v>
+        <v>456.4271212953049</v>
       </c>
       <c r="O26" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
-        <v>498.9752675705654</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9953,31 +9953,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>483.7991395936675</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>381.2527255747684</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>190.0864181671784</v>
       </c>
       <c r="Q27" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K28" t="n">
         <v>249.7804132464869</v>
@@ -10044,7 +10044,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
-        <v>26.57325859521331</v>
+        <v>84.64530730648448</v>
       </c>
       <c r="O28" t="n">
         <v>381.5174992961649</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>35.76460079480934</v>
@@ -10123,19 +10123,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>498.6795285947802</v>
+        <v>457.1346235160602</v>
       </c>
       <c r="O29" t="n">
-        <v>480.8559469023526</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P29" t="n">
-        <v>498.9752675705654</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>295.0530226965566</v>
@@ -10199,19 +10199,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N30" t="n">
-        <v>189.6586051758916</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>484.5717954825564</v>
       </c>
       <c r="P30" t="n">
-        <v>483.1707469651628</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>183.5407536736397</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10269,16 +10269,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>225.9068206338005</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
@@ -10287,7 +10287,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
         <v>152.9025226039384</v>
@@ -10357,16 +10357,16 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
-        <v>457.2862635810459</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P32" t="n">
-        <v>498.9752675705654</v>
+        <v>457.4303624918456</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>295.0530226965566</v>
@@ -10436,22 +10436,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>482.7429339738758</v>
+        <v>99.28895563385618</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q33" t="n">
-        <v>191.0626152513283</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
@@ -10521,13 +10521,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
-        <v>381.5174992961649</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548562</v>
+        <v>299.4534711317698</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.31013128815719</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>360.4858157331554</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>499.7119481929571</v>
+        <v>115.5109099618853</v>
       </c>
       <c r="M35" t="n">
         <v>37.43126289943181</v>
@@ -10600,16 +10600,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P35" t="n">
-        <v>498.9752675705654</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>100.4610141345439</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>456.5786519614262</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O36" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>483.1707469651628</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,7 +10746,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K37" t="n">
-        <v>60.65522297608414</v>
+        <v>60.65522297608413</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
@@ -10831,16 +10831,16 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>457.1346235160601</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>457.4303624918456</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10907,7 +10907,7 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L39" t="n">
-        <v>183.3088020988909</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
@@ -10916,16 +10916,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>101.1178171425367</v>
       </c>
       <c r="P39" t="n">
-        <v>483.1707469651628</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q39" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608413</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
@@ -10992,7 +10992,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
-        <v>26.57325859521331</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
         <v>381.5174992961649</v>
@@ -11001,7 +11001,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11062,16 +11062,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M41" t="n">
-        <v>498.831168659766</v>
+        <v>113.9226282079388</v>
       </c>
       <c r="N41" t="n">
-        <v>457.1346235160601</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O41" t="n">
         <v>37.3909593560241</v>
@@ -11080,10 +11080,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,25 +11141,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M42" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>191.487466684572</v>
       </c>
       <c r="P42" t="n">
-        <v>190.0864181671787</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q42" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11217,16 +11217,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>417.7126065281028</v>
+        <v>170.5153675464292</v>
       </c>
       <c r="N43" t="n">
         <v>402.0534574160406</v>
@@ -11235,10 +11235,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>227.3229668390748</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L44" t="n">
         <v>38.31204243262292</v>
@@ -11308,13 +11308,13 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>456.5384578168827</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P44" t="n">
-        <v>498.9752675705654</v>
+        <v>456.7228602710902</v>
       </c>
       <c r="Q44" t="n">
         <v>36.12467460459804</v>
@@ -11381,7 +11381,7 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L45" t="n">
-        <v>100.4610141345442</v>
+        <v>100.4610141345441</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11393,7 +11393,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>483.1707469651628</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q45" t="n">
         <v>484.1469440493127</v>
@@ -11463,7 +11463,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>42.23240770727544</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N46" t="n">
         <v>402.0534574160406</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>280.8851503238702</v>
+        <v>308.9938218274743</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>294.8896947407055</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>218.7163152458132</v>
@@ -24265,16 +24265,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>107.5634614771284</v>
+        <v>57.77457378923205</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24414,13 +24414,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>213.082500595262</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>284.9122473531711</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
         <v>34.5479025439635</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
         <v>218.7163152458132</v>
@@ -24502,10 +24502,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>68.18221377052609</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>107.5634614771283</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24682,19 +24682,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>225.2592432897187</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
         <v>294.8896947407055</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>166.841932997697</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>69.69375234679995</v>
       </c>
       <c r="D31" t="n">
-        <v>120.9693146995078</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24925,16 +24925,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>93.63306589050188</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>34.5479025439635</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>297.4550678828918</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>69.69375234679995</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>50.46150587367124</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -25156,22 +25156,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>194.1314466973008</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>255.0622712569945</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -25207,10 +25207,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>28.94852398394025</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>37.52835274194663</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25393,10 +25393,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
@@ -25408,7 +25408,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>75.62309303501746</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -25447,16 +25447,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>236.0449929785566</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>15.59817186581517</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>76.36553598427537</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -25645,10 +25645,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>114.274880739255</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>108.7668774789004</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>53.59380226493104</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>123.6805547492808</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25876,13 +25876,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>293.490054949212</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>19.17762841455412</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -26073,25 +26073,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>79.50510837954229</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>186.9421160638007</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>466746.5512746219</v>
+        <v>466746.5512746218</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>466746.5512746218</v>
+        <v>466746.5512746217</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>466746.5512746217</v>
+        <v>466746.5512746219</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>466746.5512746218</v>
+        <v>466746.551274622</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>466746.5512746217</v>
+        <v>466746.5512746219</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12763.08451939667</v>
+        <v>12763.08451939666</v>
       </c>
       <c r="C2" t="n">
         <v>12763.08451939666</v>
       </c>
       <c r="D2" t="n">
+        <v>12763.08451939666</v>
+      </c>
+      <c r="E2" t="n">
         <v>12763.08451939667</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>12763.08451939666</v>
-      </c>
-      <c r="F2" t="n">
-        <v>12763.08451939667</v>
       </c>
       <c r="G2" t="n">
         <v>12763.08451939666</v>
@@ -26337,25 +26337,25 @@
         <v>97727.0903097314</v>
       </c>
       <c r="J2" t="n">
-        <v>97727.0903097314</v>
+        <v>97727.09030973137</v>
       </c>
       <c r="K2" t="n">
         <v>97727.09030973136</v>
       </c>
       <c r="L2" t="n">
+        <v>97727.09030973136</v>
+      </c>
+      <c r="M2" t="n">
         <v>97727.0903097314</v>
       </c>
-      <c r="M2" t="n">
-        <v>97727.09030973137</v>
-      </c>
       <c r="N2" t="n">
-        <v>97727.09030973143</v>
+        <v>97727.09030973136</v>
       </c>
       <c r="O2" t="n">
         <v>97727.0903097314</v>
       </c>
       <c r="P2" t="n">
-        <v>97727.0903097314</v>
+        <v>97727.09030973137</v>
       </c>
     </row>
     <row r="3">
@@ -26441,7 +26441,7 @@
         <v>38650.95123624726</v>
       </c>
       <c r="J4" t="n">
-        <v>38650.95123624725</v>
+        <v>38650.95123624726</v>
       </c>
       <c r="K4" t="n">
         <v>38650.95123624726</v>
@@ -26459,7 +26459,7 @@
         <v>38650.95123624726</v>
       </c>
       <c r="P4" t="n">
-        <v>38650.95123624725</v>
+        <v>38650.95123624726</v>
       </c>
     </row>
     <row r="5">
@@ -26490,28 +26490,28 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="J5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="K5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="L5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="M5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="N5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="O5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="P5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25773.39414190974</v>
+        <v>-27131.32323871153</v>
       </c>
       <c r="C6" t="n">
-        <v>-25773.39414190975</v>
+        <v>-27131.32323871153</v>
       </c>
       <c r="D6" t="n">
-        <v>-25773.39414190974</v>
+        <v>-27131.32323871153</v>
       </c>
       <c r="E6" t="n">
-        <v>7854.205858090254</v>
+        <v>6496.276761288476</v>
       </c>
       <c r="F6" t="n">
-        <v>7854.205858090258</v>
+        <v>6496.276761288475</v>
       </c>
       <c r="G6" t="n">
-        <v>7854.205858090252</v>
+        <v>6496.276761288475</v>
       </c>
       <c r="H6" t="n">
-        <v>7854.205858090254</v>
+        <v>6496.276761288475</v>
       </c>
       <c r="I6" t="n">
-        <v>-91672.89953643797</v>
+        <v>-92377.25935792951</v>
       </c>
       <c r="J6" t="n">
-        <v>31023.02480325583</v>
+        <v>30318.66498176428</v>
       </c>
       <c r="K6" t="n">
-        <v>31023.02480325579</v>
+        <v>30318.66498176427</v>
       </c>
       <c r="L6" t="n">
-        <v>31023.02480325583</v>
+        <v>30318.66498176427</v>
       </c>
       <c r="M6" t="n">
-        <v>31023.0248032558</v>
+        <v>30318.66498176431</v>
       </c>
       <c r="N6" t="n">
-        <v>31023.02480325586</v>
+        <v>30318.66498176427</v>
       </c>
       <c r="O6" t="n">
-        <v>31023.02480325583</v>
+        <v>30318.66498176431</v>
       </c>
       <c r="P6" t="n">
-        <v>31023.02480325583</v>
+        <v>30318.66498176428</v>
       </c>
     </row>
   </sheetData>
@@ -26810,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
     </row>
   </sheetData>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="L23" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q23" t="n">
-        <v>324.0137127175907</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36439,16 +36439,16 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L24" t="n">
-        <v>168.31557696235</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M24" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N24" t="n">
-        <v>461.3999057603341</v>
+        <v>168.3155769623498</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K25" t="n">
-        <v>39.69056852337214</v>
+        <v>211.6076016844843</v>
       </c>
       <c r="L25" t="n">
-        <v>358.2720417115361</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>395.137166636617</v>
@@ -36536,7 +36536,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,25 +36597,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>419.8550006816141</v>
+        <v>419.1474984608589</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>359.9096973612267</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>168.3155769623498</v>
       </c>
       <c r="Q27" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R27" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>228.8157587937749</v>
@@ -36764,7 +36764,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N28" t="n">
-        <v>5.824357619612921</v>
+        <v>63.89640633088408</v>
       </c>
       <c r="O28" t="n">
         <v>359.0183117977405</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -36843,19 +36843,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>461.3999057603341</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="O29" t="n">
-        <v>443.4649875463285</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P29" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N30" t="n">
-        <v>168.3155769623499</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P30" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>160.7937153846612</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K31" t="n">
-        <v>204.9421661810885</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L31" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M31" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N31" t="n">
         <v>381.3045564404402</v>
@@ -37007,7 +37007,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q31" t="n">
         <v>128.2829598391535</v>
@@ -37077,16 +37077,16 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>419.8550006816141</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P32" t="n">
-        <v>461.3999057603341</v>
+        <v>419.8550006816143</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>461.3999057603341</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q33" t="n">
-        <v>168.3155769623498</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L34" t="n">
         <v>358.2720417115361</v>
@@ -37241,13 +37241,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O34" t="n">
-        <v>359.0183117977405</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>293.5345574968697</v>
+        <v>277.0726704737833</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.69056852337224</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>324.7212149383461</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>461.3999057603341</v>
+        <v>77.19886752926237</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37320,16 +37320,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P35" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>77.94592742031439</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>435.2356237478845</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O36" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,16 +37551,16 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>419.8550006816141</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>419.8550006816143</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37624,10 +37624,10 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L39" t="n">
-        <v>160.7937153846613</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="P39" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q39" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L40" t="n">
         <v>358.2720417115361</v>
@@ -37712,7 +37712,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N40" t="n">
-        <v>5.824357619612921</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O40" t="n">
         <v>359.0183117977405</v>
@@ -37721,7 +37721,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,16 +37782,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M41" t="n">
-        <v>461.3999057603341</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="N41" t="n">
-        <v>419.8550006816141</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -37800,10 +37800,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M42" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>168.3155769623498</v>
       </c>
       <c r="P42" t="n">
-        <v>168.31557696235</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q42" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L43" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M43" t="n">
-        <v>395.137166636617</v>
+        <v>147.9399276549434</v>
       </c>
       <c r="N43" t="n">
         <v>381.3045564404402</v>
@@ -37955,10 +37955,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P43" t="n">
-        <v>204.9421661810883</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -38028,13 +38028,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>419.1474984608586</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P44" t="n">
-        <v>461.3999057603341</v>
+        <v>419.1474984608589</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L45" t="n">
-        <v>77.94592742031462</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38113,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q45" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>
@@ -38183,7 +38183,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M46" t="n">
-        <v>19.65696781578962</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N46" t="n">
         <v>381.3045564404402</v>
